--- a/Hurricane_capstone/test_import_landfall.xlsx
+++ b/Hurricane_capstone/test_import_landfall.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brentcleland/Desktop/Hurricane_capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brentcleland/NSS/Projects/Capstone/StrongWinds/Hurricane_capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9CD73B-F3A9-B84A-9C5E-68175EB275B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD1AC1-66E9-754E-9754-189387523889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9434A976-24E0-804F-80B9-4ACCD73DAFE2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{9434A976-24E0-804F-80B9-4ACCD73DAFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$885</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2315,7 +2315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2326,6 +2326,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2641,10 +2642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E2C23-8965-6F48-AEBD-D2FD963C0664}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T885"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E893" sqref="E893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2723,7 +2725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>180042.4</v>
       </c>
       <c r="H2" s="8">
-        <f>G2*1000000</f>
+        <f t="shared" ref="H2:H26" si="0">G2*1000000</f>
         <v>180042400000</v>
       </c>
       <c r="I2" t="s">
@@ -2756,7 +2758,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>143750</v>
       </c>
       <c r="H3" s="8">
-        <f>G3*1000000</f>
+        <f t="shared" si="0"/>
         <v>143750000000</v>
       </c>
       <c r="I3" t="s">
@@ -2789,7 +2791,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>103500</v>
       </c>
       <c r="H4" s="8">
-        <f>G4*1000000</f>
+        <f t="shared" si="0"/>
         <v>103500000000</v>
       </c>
       <c r="I4" t="s">
@@ -2828,7 +2830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>79998.5</v>
       </c>
       <c r="H5" s="8">
-        <f>G5*1000000</f>
+        <f t="shared" si="0"/>
         <v>79998500000</v>
       </c>
       <c r="I5" t="s">
@@ -2867,7 +2869,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>57500</v>
       </c>
       <c r="H6" s="8">
-        <f>G6*1000000</f>
+        <f t="shared" si="0"/>
         <v>57500000000</v>
       </c>
       <c r="I6" t="s">
@@ -2906,7 +2908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>54270</v>
       </c>
       <c r="H7" s="8">
-        <f>G7*1000000</f>
+        <f t="shared" si="0"/>
         <v>54270000000</v>
       </c>
       <c r="I7" t="s">
@@ -2942,7 +2944,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>38998.400000000001</v>
       </c>
       <c r="H8" s="8">
-        <f>G8*1000000</f>
+        <f t="shared" si="0"/>
         <v>38998400000</v>
       </c>
       <c r="I8" t="s">
@@ -2978,7 +2980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>30545.8</v>
       </c>
       <c r="H9" s="8">
-        <f>G9*1000000</f>
+        <f t="shared" si="0"/>
         <v>30545800000</v>
       </c>
       <c r="I9" t="s">
@@ -3014,7 +3016,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>27972</v>
       </c>
       <c r="H10" s="8">
-        <f>G10*1000000</f>
+        <f t="shared" si="0"/>
         <v>27972000000</v>
       </c>
       <c r="I10" t="s">
@@ -3047,7 +3049,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>26980</v>
       </c>
       <c r="H11" s="8">
-        <f>G11*1000000</f>
+        <f t="shared" si="0"/>
         <v>26980000000</v>
       </c>
       <c r="I11" t="s">
@@ -3083,7 +3085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3103,14 +3105,14 @@
         <v>26880</v>
       </c>
       <c r="H12" s="8">
-        <f>G12*1000000</f>
+        <f t="shared" si="0"/>
         <v>26880000000</v>
       </c>
       <c r="I12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>26455.1</v>
       </c>
       <c r="H13" s="8">
-        <f>G13*1000000</f>
+        <f t="shared" si="0"/>
         <v>26455100000</v>
       </c>
       <c r="I13" t="s">
@@ -3143,7 +3145,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>25304.5</v>
       </c>
       <c r="H14" s="8">
-        <f>G14*1000000</f>
+        <f t="shared" si="0"/>
         <v>25304500000</v>
       </c>
       <c r="I14" t="s">
@@ -3173,7 +3175,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>20429.7</v>
       </c>
       <c r="H15" s="8">
-        <f>G15*1000000</f>
+        <f t="shared" si="0"/>
         <v>20429700000</v>
       </c>
       <c r="I15" t="s">
@@ -3206,7 +3208,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>14601.9</v>
       </c>
       <c r="H16" s="8">
-        <f>G16*1000000</f>
+        <f t="shared" si="0"/>
         <v>14601900000</v>
       </c>
       <c r="I16" t="s">
@@ -3242,7 +3244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>11700</v>
       </c>
       <c r="H17" s="8">
-        <f>G17*1000000</f>
+        <f t="shared" si="0"/>
         <v>11700000000</v>
       </c>
       <c r="I17" t="s">
@@ -3281,7 +3283,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>10969.9</v>
       </c>
       <c r="H18" s="8">
-        <f>G18*1000000</f>
+        <f t="shared" si="0"/>
         <v>10969900000</v>
       </c>
       <c r="I18" t="s">
@@ -3317,7 +3319,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>10353.200000000001</v>
       </c>
       <c r="H19" s="8">
-        <f>G19*1000000</f>
+        <f t="shared" si="0"/>
         <v>10353200000</v>
       </c>
       <c r="I19" t="s">
@@ -3362,7 +3364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>8674.7000000000007</v>
       </c>
       <c r="H20" s="8">
-        <f>G20*1000000</f>
+        <f t="shared" si="0"/>
         <v>8674700000</v>
       </c>
       <c r="I20" t="s">
@@ -3392,7 +3394,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3415,14 +3417,14 @@
         <v>8490</v>
       </c>
       <c r="H21" s="8">
-        <f>G21*1000000</f>
+        <f t="shared" si="0"/>
         <v>8490000000</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>8390.6</v>
       </c>
       <c r="H22" s="8">
-        <f>G22*1000000</f>
+        <f t="shared" si="0"/>
         <v>8390600000</v>
       </c>
       <c r="I22" t="s">
@@ -3458,7 +3460,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>7928.7</v>
       </c>
       <c r="H23" s="8">
-        <f>G23*1000000</f>
+        <f t="shared" si="0"/>
         <v>7928700000</v>
       </c>
       <c r="I23" t="s">
@@ -3497,7 +3499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>7736.1</v>
       </c>
       <c r="H24" s="8">
-        <f>G24*1000000</f>
+        <f t="shared" si="0"/>
         <v>7736100000</v>
       </c>
       <c r="I24" t="s">
@@ -3533,7 +3535,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>5185.2</v>
       </c>
       <c r="H25" s="8">
-        <f>G25*1000000</f>
+        <f t="shared" si="0"/>
         <v>5185200000</v>
       </c>
       <c r="I25" t="s">
@@ -3575,7 +3577,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>4743.7</v>
       </c>
       <c r="H26" s="8">
-        <f>G26*1000000</f>
+        <f t="shared" si="0"/>
         <v>4743700000</v>
       </c>
       <c r="I26" t="s">
@@ -3626,7 +3628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>3906.5</v>
       </c>
       <c r="H28" s="8">
-        <f>G28*1000000</f>
+        <f t="shared" ref="H28:H34" si="1">G28*1000000</f>
         <v>3906500000</v>
       </c>
       <c r="I28" t="s">
@@ -3712,7 +3714,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3735,7 +3737,7 @@
         <v>3885</v>
       </c>
       <c r="H29" s="8">
-        <f>G29*1000000</f>
+        <f t="shared" si="1"/>
         <v>3885000000</v>
       </c>
       <c r="I29" t="s">
@@ -3754,7 +3756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>3617.8</v>
       </c>
       <c r="H30" s="8">
-        <f>G30*1000000</f>
+        <f t="shared" si="1"/>
         <v>3617800000</v>
       </c>
       <c r="I30" t="s">
@@ -3784,7 +3786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3807,7 +3809,7 @@
         <v>3399.1</v>
       </c>
       <c r="H31" s="8">
-        <f>G31*1000000</f>
+        <f t="shared" si="1"/>
         <v>3399100000</v>
       </c>
       <c r="I31" t="s">
@@ -3832,7 +3834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>3125.3</v>
       </c>
       <c r="H32" s="8">
-        <f>G32*1000000</f>
+        <f t="shared" si="1"/>
         <v>3125300000</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -3862,7 +3864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3882,7 +3884,7 @@
         <v>2399.3000000000002</v>
       </c>
       <c r="H33" s="8">
-        <f>G33*1000000</f>
+        <f t="shared" si="1"/>
         <v>2399300000</v>
       </c>
       <c r="I33" t="s">
@@ -3895,7 +3897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>2242.9</v>
       </c>
       <c r="H34" s="8">
-        <f>G34*1000000</f>
+        <f t="shared" si="1"/>
         <v>2242900000</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -3928,7 +3930,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4142,7 +4144,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -4398,7 +4400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4639,7 +4641,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4800,7 +4802,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -5285,7 +5287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -5317,7 +5319,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5387,7 +5389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6761,7 +6763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2</v>
       </c>
@@ -7012,7 +7014,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -7123,7 +7125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -7152,7 +7154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -7228,7 +7230,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -7292,7 +7294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -7602,7 +7604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2</v>
       </c>
@@ -7756,7 +7758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -7876,7 +7878,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2</v>
       </c>
@@ -7917,7 +7919,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2</v>
       </c>
@@ -8013,7 +8015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -8220,7 +8222,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -8302,7 +8304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -8337,7 +8339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -8480,7 +8482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -8538,7 +8540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -8667,7 +8669,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -8693,7 +8695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -8722,7 +8724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -8819,7 +8821,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -8985,7 +8987,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -9040,7 +9042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2</v>
       </c>
@@ -9148,7 +9150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -9183,7 +9185,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2</v>
       </c>
@@ -9340,7 +9342,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -9387,7 +9389,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2</v>
       </c>
@@ -9422,7 +9424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -9457,7 +9459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -9486,7 +9488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -9527,7 +9529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -9612,7 +9614,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -9734,7 +9736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2</v>
       </c>
@@ -9772,7 +9774,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2</v>
       </c>
@@ -9859,7 +9861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>5</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>5</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3</v>
       </c>
@@ -10115,7 +10117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5</v>
       </c>
@@ -10154,7 +10156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3</v>
       </c>
@@ -10187,7 +10189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -10220,7 +10222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>5</v>
       </c>
@@ -10247,7 +10249,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -10301,7 +10303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3</v>
       </c>
@@ -10415,7 +10417,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -10445,7 +10447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5</v>
       </c>
@@ -10532,7 +10534,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3</v>
       </c>
@@ -10556,7 +10558,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3</v>
       </c>
@@ -10583,7 +10585,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2</v>
       </c>
@@ -10610,7 +10612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>5</v>
       </c>
@@ -10643,7 +10645,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3</v>
       </c>
@@ -10670,7 +10672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -10700,7 +10702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5</v>
       </c>
@@ -10724,7 +10726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>5</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>5</v>
       </c>
@@ -10859,7 +10861,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3</v>
       </c>
@@ -10919,7 +10921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3</v>
       </c>
@@ -11003,7 +11005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -11036,7 +11038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>5</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>5</v>
       </c>
@@ -11096,7 +11098,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -11123,7 +11125,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
@@ -11153,7 +11155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3</v>
       </c>
@@ -11207,7 +11209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3</v>
       </c>
@@ -11277,11 +11279,14 @@
       <c r="D244" t="s">
         <v>37</v>
       </c>
-      <c r="E244" s="3">
-        <v>76514.899999999994</v>
+      <c r="E244" s="10">
+        <v>105</v>
       </c>
       <c r="F244" s="3">
         <v>96</v>
+      </c>
+      <c r="G244" s="3">
+        <v>76514.899999999994</v>
       </c>
       <c r="H244"/>
       <c r="I244" t="s">
@@ -11291,7 +11296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -11321,7 +11326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -11351,7 +11356,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>5</v>
       </c>
@@ -11384,7 +11389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2</v>
       </c>
@@ -11420,7 +11425,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3</v>
       </c>
@@ -11447,7 +11452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -11483,7 +11488,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3</v>
       </c>
@@ -11537,7 +11542,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2</v>
       </c>
@@ -11567,7 +11572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2</v>
       </c>
@@ -11594,7 +11599,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2</v>
       </c>
@@ -11621,7 +11626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2</v>
       </c>
@@ -11657,7 +11662,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>5</v>
       </c>
@@ -11687,7 +11692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>3</v>
       </c>
@@ -11714,7 +11719,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2</v>
       </c>
@@ -11741,7 +11746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2</v>
       </c>
@@ -11768,7 +11773,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3</v>
       </c>
@@ -11807,7 +11812,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1</v>
       </c>
@@ -11837,7 +11842,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>3</v>
       </c>
@@ -11861,7 +11866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5</v>
       </c>
@@ -11888,7 +11893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3</v>
       </c>
@@ -11939,7 +11944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2</v>
       </c>
@@ -11966,7 +11971,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>5</v>
       </c>
@@ -11996,7 +12001,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2</v>
       </c>
@@ -12032,7 +12037,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>3</v>
       </c>
@@ -12062,7 +12067,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>3</v>
       </c>
@@ -12089,7 +12094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>3</v>
       </c>
@@ -12116,7 +12121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3</v>
       </c>
@@ -12140,7 +12145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3</v>
       </c>
@@ -12164,7 +12169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -12191,7 +12196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3</v>
       </c>
@@ -12221,7 +12226,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>3</v>
       </c>
@@ -12275,7 +12280,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3</v>
       </c>
@@ -12302,7 +12307,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1</v>
       </c>
@@ -12326,7 +12331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>3</v>
       </c>
@@ -12362,7 +12367,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>3</v>
       </c>
@@ -12425,7 +12430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>3</v>
       </c>
@@ -12452,7 +12457,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>3</v>
       </c>
@@ -12476,7 +12481,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -12500,7 +12505,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3</v>
       </c>
@@ -12530,7 +12535,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>3</v>
       </c>
@@ -12557,7 +12562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>3</v>
       </c>
@@ -12587,7 +12592,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3</v>
       </c>
@@ -12617,7 +12622,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>3</v>
       </c>
@@ -12659,7 +12664,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -12683,7 +12688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3</v>
       </c>
@@ -12713,7 +12718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1</v>
       </c>
@@ -12737,7 +12742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>5</v>
       </c>
@@ -12767,7 +12772,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>3</v>
       </c>
@@ -12797,7 +12802,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2</v>
       </c>
@@ -12827,7 +12832,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3</v>
       </c>
@@ -12854,7 +12859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>5</v>
       </c>
@@ -12887,7 +12892,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>1</v>
       </c>
@@ -12914,7 +12919,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>3</v>
       </c>
@@ -12944,7 +12949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5</v>
       </c>
@@ -12971,7 +12976,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3</v>
       </c>
@@ -12998,7 +13003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2</v>
       </c>
@@ -13028,7 +13033,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>1</v>
       </c>
@@ -13058,7 +13063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2</v>
       </c>
@@ -13088,7 +13093,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>1</v>
       </c>
@@ -13142,7 +13147,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2</v>
       </c>
@@ -13169,7 +13174,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3</v>
       </c>
@@ -13193,7 +13198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3</v>
       </c>
@@ -13223,7 +13228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3</v>
       </c>
@@ -13259,7 +13264,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3</v>
       </c>
@@ -13283,7 +13288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1</v>
       </c>
@@ -13313,7 +13318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3</v>
       </c>
@@ -13337,7 +13342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3</v>
       </c>
@@ -13364,7 +13369,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>5</v>
       </c>
@@ -13388,7 +13393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3</v>
       </c>
@@ -13421,7 +13426,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1</v>
       </c>
@@ -13448,7 +13453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1</v>
       </c>
@@ -13472,7 +13477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3</v>
       </c>
@@ -13508,7 +13513,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3</v>
       </c>
@@ -13535,7 +13540,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3</v>
       </c>
@@ -13559,7 +13564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3</v>
       </c>
@@ -13583,7 +13588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -13622,7 +13627,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1</v>
       </c>
@@ -13649,7 +13654,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -13679,7 +13684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3</v>
       </c>
@@ -13706,7 +13711,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -13739,7 +13744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2</v>
       </c>
@@ -13772,7 +13777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2</v>
       </c>
@@ -13796,7 +13801,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3</v>
       </c>
@@ -13823,7 +13828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1</v>
       </c>
@@ -13847,7 +13852,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1</v>
       </c>
@@ -13886,7 +13891,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>5</v>
       </c>
@@ -13910,7 +13915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3</v>
       </c>
@@ -13937,7 +13942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3</v>
       </c>
@@ -13964,7 +13969,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1</v>
       </c>
@@ -14000,7 +14005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3</v>
       </c>
@@ -14030,7 +14035,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>5</v>
       </c>
@@ -14060,7 +14065,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3</v>
       </c>
@@ -14087,7 +14092,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1</v>
       </c>
@@ -14111,7 +14116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2</v>
       </c>
@@ -14141,7 +14146,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -14165,7 +14170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2</v>
       </c>
@@ -14189,7 +14194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3</v>
       </c>
@@ -14219,7 +14224,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3</v>
       </c>
@@ -14246,7 +14251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -14273,7 +14278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3</v>
       </c>
@@ -14303,7 +14308,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3</v>
       </c>
@@ -14333,7 +14338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3</v>
       </c>
@@ -14360,7 +14365,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3</v>
       </c>
@@ -14387,7 +14392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3</v>
       </c>
@@ -14420,7 +14425,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3</v>
       </c>
@@ -14444,7 +14449,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -14471,7 +14476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -14495,7 +14500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -14525,7 +14530,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2</v>
       </c>
@@ -14564,7 +14569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3</v>
       </c>
@@ -14591,7 +14596,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3</v>
       </c>
@@ -14627,7 +14632,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3</v>
       </c>
@@ -14651,7 +14656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3</v>
       </c>
@@ -14681,7 +14686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>3</v>
       </c>
@@ -14708,7 +14713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3</v>
       </c>
@@ -14732,7 +14737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -14762,7 +14767,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3</v>
       </c>
@@ -14792,7 +14797,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>1</v>
       </c>
@@ -14819,7 +14824,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2</v>
       </c>
@@ -14849,7 +14854,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1</v>
       </c>
@@ -14876,7 +14881,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1</v>
       </c>
@@ -14912,7 +14917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
@@ -14945,7 +14950,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2</v>
       </c>
@@ -14969,7 +14974,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2</v>
       </c>
@@ -15011,7 +15016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1</v>
       </c>
@@ -15050,7 +15055,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2</v>
       </c>
@@ -15074,7 +15079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3</v>
       </c>
@@ -15101,7 +15106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3</v>
       </c>
@@ -15125,7 +15130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>1</v>
       </c>
@@ -15149,7 +15154,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>3</v>
       </c>
@@ -15173,7 +15178,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>1</v>
       </c>
@@ -15197,7 +15202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2</v>
       </c>
@@ -15221,7 +15226,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2</v>
       </c>
@@ -15248,7 +15253,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1</v>
       </c>
@@ -15281,7 +15286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3</v>
       </c>
@@ -15311,7 +15316,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3</v>
       </c>
@@ -15335,7 +15340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3</v>
       </c>
@@ -15359,7 +15364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1</v>
       </c>
@@ -15383,7 +15388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2</v>
       </c>
@@ -15407,7 +15412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2</v>
       </c>
@@ -15431,7 +15436,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1</v>
       </c>
@@ -15461,7 +15466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1</v>
       </c>
@@ -15488,7 +15493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2</v>
       </c>
@@ -15527,7 +15532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1</v>
       </c>
@@ -15551,7 +15556,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>1</v>
       </c>
@@ -15584,7 +15589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1</v>
       </c>
@@ -15608,7 +15613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3</v>
       </c>
@@ -15632,7 +15637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3</v>
       </c>
@@ -15656,7 +15661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3</v>
       </c>
@@ -15680,7 +15685,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1</v>
       </c>
@@ -15716,7 +15721,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3</v>
       </c>
@@ -15740,7 +15745,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1</v>
       </c>
@@ -15767,7 +15772,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2</v>
       </c>
@@ -15791,7 +15796,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -15815,7 +15820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2</v>
       </c>
@@ -15839,7 +15844,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1</v>
       </c>
@@ -15869,7 +15874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1</v>
       </c>
@@ -15893,7 +15898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1</v>
       </c>
@@ -15938,7 +15943,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1</v>
       </c>
@@ -15965,7 +15970,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2</v>
       </c>
@@ -15989,7 +15994,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1</v>
       </c>
@@ -16013,7 +16018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1</v>
       </c>
@@ -16037,7 +16042,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2</v>
       </c>
@@ -16061,7 +16066,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1</v>
       </c>
@@ -16085,7 +16090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1</v>
       </c>
@@ -16109,7 +16114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1</v>
       </c>
@@ -16133,7 +16138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>1</v>
       </c>
@@ -16160,7 +16165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1</v>
       </c>
@@ -16184,7 +16189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2</v>
       </c>
@@ -16208,7 +16213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2</v>
       </c>
@@ -16232,7 +16237,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1</v>
       </c>
@@ -16259,7 +16264,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1</v>
       </c>
@@ -16283,7 +16288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1</v>
       </c>
@@ -16310,7 +16315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1</v>
       </c>
@@ -16337,7 +16342,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1</v>
       </c>
@@ -16370,7 +16375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2</v>
       </c>
@@ -16394,7 +16399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>1</v>
       </c>
@@ -16418,7 +16423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1</v>
       </c>
@@ -16442,7 +16447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>1</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1</v>
       </c>
@@ -16496,7 +16501,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>1</v>
       </c>
@@ -16529,7 +16534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>1</v>
       </c>
@@ -16553,7 +16558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2</v>
       </c>
@@ -16577,7 +16582,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>1</v>
       </c>
@@ -16604,7 +16609,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>1</v>
       </c>
@@ -16628,7 +16633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2</v>
       </c>
@@ -16652,7 +16657,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>1</v>
       </c>
@@ -16676,7 +16681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2</v>
       </c>
@@ -16700,7 +16705,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2</v>
       </c>
@@ -16724,7 +16729,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2</v>
       </c>
@@ -16754,7 +16759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2</v>
       </c>
@@ -16787,7 +16792,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1</v>
       </c>
@@ -16814,7 +16819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2</v>
       </c>
@@ -16841,7 +16846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2</v>
       </c>
@@ -16865,7 +16870,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2</v>
       </c>
@@ -16889,7 +16894,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -16913,7 +16918,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1</v>
       </c>
@@ -16937,7 +16942,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2</v>
       </c>
@@ -16961,7 +16966,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1</v>
       </c>
@@ -16985,7 +16990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>1</v>
       </c>
@@ -17009,7 +17014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1</v>
       </c>
@@ -17033,7 +17038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1</v>
       </c>
@@ -17057,7 +17062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2</v>
       </c>
@@ -17087,7 +17092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1</v>
       </c>
@@ -17111,7 +17116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2</v>
       </c>
@@ -17135,7 +17140,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1</v>
       </c>
@@ -17165,7 +17170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1</v>
       </c>
@@ -17192,7 +17197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>1</v>
       </c>
@@ -17216,7 +17221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>1</v>
       </c>
@@ -17240,7 +17245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>1</v>
       </c>
@@ -17264,7 +17269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2</v>
       </c>
@@ -17288,7 +17293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2</v>
       </c>
@@ -17312,7 +17317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1</v>
       </c>
@@ -17342,7 +17347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -17366,7 +17371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2</v>
       </c>
@@ -17390,7 +17395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1</v>
       </c>
@@ -17414,7 +17419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1</v>
       </c>
@@ -17438,7 +17443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1</v>
       </c>
@@ -17462,7 +17467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2</v>
       </c>
@@ -17486,7 +17491,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2</v>
       </c>
@@ -17510,7 +17515,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2</v>
       </c>
@@ -17534,7 +17539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>1</v>
       </c>
@@ -17564,7 +17569,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1</v>
       </c>
@@ -17591,7 +17596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2</v>
       </c>
@@ -17618,7 +17623,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2</v>
       </c>
@@ -17642,7 +17647,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1</v>
       </c>
@@ -17666,7 +17671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2</v>
       </c>
@@ -17690,7 +17695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1</v>
       </c>
@@ -17714,7 +17719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1</v>
       </c>
@@ -17738,7 +17743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>1</v>
       </c>
@@ -17762,7 +17767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2</v>
       </c>
@@ -17786,7 +17791,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2</v>
       </c>
@@ -17810,7 +17815,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2</v>
       </c>
@@ -17834,7 +17839,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1</v>
       </c>
@@ -17858,7 +17863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1</v>
       </c>
@@ -17882,7 +17887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1</v>
       </c>
@@ -17906,7 +17911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1</v>
       </c>
@@ -17930,7 +17935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>1</v>
       </c>
@@ -17954,7 +17959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>1</v>
       </c>
@@ -17978,7 +17983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2</v>
       </c>
@@ -18002,7 +18007,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>1</v>
       </c>
@@ -18026,7 +18031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2</v>
       </c>
@@ -18050,7 +18055,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2</v>
       </c>
@@ -18074,7 +18079,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1</v>
       </c>
@@ -18098,7 +18103,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2</v>
       </c>
@@ -18128,7 +18133,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2</v>
       </c>
@@ -18164,7 +18169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2</v>
       </c>
@@ -18197,7 +18202,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2</v>
       </c>
@@ -18227,7 +18232,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2</v>
       </c>
@@ -18257,7 +18262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2</v>
       </c>
@@ -18287,7 +18292,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2</v>
       </c>
@@ -18317,7 +18322,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2</v>
       </c>
@@ -18344,7 +18349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2</v>
       </c>
@@ -18368,7 +18373,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1</v>
       </c>
@@ -18392,7 +18397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1</v>
       </c>
@@ -18416,7 +18421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1</v>
       </c>
@@ -18440,7 +18445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>1</v>
       </c>
@@ -18464,7 +18469,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2</v>
       </c>
@@ -18489,7 +18494,7 @@
       </c>
       <c r="J506"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2</v>
       </c>
@@ -18513,7 +18518,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2</v>
       </c>
@@ -18537,7 +18542,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2</v>
       </c>
@@ -18561,7 +18566,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2</v>
       </c>
@@ -18585,7 +18590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2</v>
       </c>
@@ -18609,7 +18614,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2</v>
       </c>
@@ -18633,7 +18638,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1</v>
       </c>
@@ -18657,7 +18662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>1</v>
       </c>
@@ -18681,7 +18686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1</v>
       </c>
@@ -18705,7 +18710,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>1</v>
       </c>
@@ -18729,7 +18734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>1</v>
       </c>
@@ -18753,7 +18758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1</v>
       </c>
@@ -18777,7 +18782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1</v>
       </c>
@@ -18801,7 +18806,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1</v>
       </c>
@@ -18828,7 +18833,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>1</v>
       </c>
@@ -18852,7 +18857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1</v>
       </c>
@@ -18879,7 +18884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1</v>
       </c>
@@ -18906,7 +18911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1</v>
       </c>
@@ -18930,7 +18935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2</v>
       </c>
@@ -18954,7 +18959,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>1</v>
       </c>
@@ -18978,7 +18983,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2</v>
       </c>
@@ -19002,7 +19007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>1</v>
       </c>
@@ -19026,7 +19031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2</v>
       </c>
@@ -19050,7 +19055,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2</v>
       </c>
@@ -19074,7 +19079,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2</v>
       </c>
@@ -19098,7 +19103,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2</v>
       </c>
@@ -19122,7 +19127,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>3</v>
       </c>
@@ -19146,7 +19151,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>1</v>
       </c>
@@ -19170,7 +19175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>1</v>
       </c>
@@ -19194,7 +19199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>1</v>
       </c>
@@ -19221,7 +19226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>1</v>
       </c>
@@ -19245,7 +19250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>1</v>
       </c>
@@ -19269,7 +19274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>1</v>
       </c>
@@ -19293,7 +19298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2</v>
       </c>
@@ -19317,7 +19322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>1</v>
       </c>
@@ -19341,7 +19346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2</v>
       </c>
@@ -19365,7 +19370,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2</v>
       </c>
@@ -19389,7 +19394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>1</v>
       </c>
@@ -19413,7 +19418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>1</v>
       </c>
@@ -19437,7 +19442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>2</v>
       </c>
@@ -19461,7 +19466,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3</v>
       </c>
@@ -19485,7 +19490,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>2</v>
       </c>
@@ -19509,7 +19514,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>1</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>2</v>
       </c>
@@ -19563,7 +19568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>2</v>
       </c>
@@ -19587,7 +19592,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>1</v>
       </c>
@@ -19614,7 +19619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>2</v>
       </c>
@@ -19644,7 +19649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1</v>
       </c>
@@ -19671,7 +19676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1</v>
       </c>
@@ -19695,7 +19700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>1</v>
       </c>
@@ -19725,7 +19730,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>1</v>
       </c>
@@ -19749,7 +19754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2</v>
       </c>
@@ -19773,7 +19778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>1</v>
       </c>
@@ -19797,7 +19802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>2</v>
       </c>
@@ -19821,7 +19826,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>1</v>
       </c>
@@ -19845,7 +19850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1</v>
       </c>
@@ -19881,7 +19886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>2</v>
       </c>
@@ -19905,7 +19910,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2</v>
       </c>
@@ -19929,7 +19934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>1</v>
       </c>
@@ -19959,7 +19964,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>1</v>
       </c>
@@ -19989,7 +19994,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>1</v>
       </c>
@@ -20016,7 +20021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>1</v>
       </c>
@@ -20040,7 +20045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>1</v>
       </c>
@@ -20064,7 +20069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>1</v>
       </c>
@@ -20088,7 +20093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>1</v>
       </c>
@@ -20112,7 +20117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1</v>
       </c>
@@ -20142,7 +20147,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>1</v>
       </c>
@@ -20175,7 +20180,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>2</v>
       </c>
@@ -20205,7 +20210,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>1</v>
       </c>
@@ -20232,7 +20237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>1</v>
       </c>
@@ -20265,7 +20270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>1</v>
       </c>
@@ -20289,7 +20294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>1</v>
       </c>
@@ -20313,7 +20318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>1</v>
       </c>
@@ -20337,7 +20342,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>2</v>
       </c>
@@ -20361,7 +20366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>2</v>
       </c>
@@ -20385,7 +20390,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>2</v>
       </c>
@@ -20409,7 +20414,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>2</v>
       </c>
@@ -20433,7 +20438,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>1</v>
       </c>
@@ -20457,7 +20462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>1</v>
       </c>
@@ -20481,7 +20486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>1</v>
       </c>
@@ -20505,7 +20510,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>1</v>
       </c>
@@ -20529,7 +20534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>1</v>
       </c>
@@ -20562,7 +20567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>2</v>
       </c>
@@ -20592,7 +20597,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>1</v>
       </c>
@@ -20619,7 +20624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>1</v>
       </c>
@@ -20646,7 +20651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>1</v>
       </c>
@@ -20673,7 +20678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>1</v>
       </c>
@@ -20697,7 +20702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>1</v>
       </c>
@@ -20721,7 +20726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>1</v>
       </c>
@@ -20745,7 +20750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>1</v>
       </c>
@@ -20769,7 +20774,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>1</v>
       </c>
@@ -20793,7 +20798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>1</v>
       </c>
@@ -20817,7 +20822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>2</v>
       </c>
@@ -20841,7 +20846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>1</v>
       </c>
@@ -20865,7 +20870,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>2</v>
       </c>
@@ -20889,7 +20894,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>2</v>
       </c>
@@ -20913,7 +20918,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>2</v>
       </c>
@@ -20937,7 +20942,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>2</v>
       </c>
@@ -20961,7 +20966,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>1</v>
       </c>
@@ -20985,7 +20990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>1</v>
       </c>
@@ -21009,7 +21014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>1</v>
       </c>
@@ -21033,7 +21038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>1</v>
       </c>
@@ -21057,7 +21062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>1</v>
       </c>
@@ -21081,7 +21086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>1</v>
       </c>
@@ -21105,7 +21110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>2</v>
       </c>
@@ -21129,7 +21134,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>1</v>
       </c>
@@ -21165,7 +21170,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>1</v>
       </c>
@@ -21189,7 +21194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>1</v>
       </c>
@@ -21213,7 +21218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>1</v>
       </c>
@@ -21237,7 +21242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>2</v>
       </c>
@@ -21267,7 +21272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>2</v>
       </c>
@@ -21306,7 +21311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>2</v>
       </c>
@@ -21333,7 +21338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>2</v>
       </c>
@@ -21357,7 +21362,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>2</v>
       </c>
@@ -21381,7 +21386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>1</v>
       </c>
@@ -21405,7 +21410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>1</v>
       </c>
@@ -21429,7 +21434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>1</v>
       </c>
@@ -21453,7 +21458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>2</v>
       </c>
@@ -21477,7 +21482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>2</v>
       </c>
@@ -21501,7 +21506,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>2</v>
       </c>
@@ -21522,7 +21527,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>2</v>
       </c>
@@ -21546,7 +21551,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>1</v>
       </c>
@@ -21570,7 +21575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>1</v>
       </c>
@@ -21594,7 +21599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>1</v>
       </c>
@@ -21618,7 +21623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>1</v>
       </c>
@@ -21642,7 +21647,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>1</v>
       </c>
@@ -21666,7 +21671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>2</v>
       </c>
@@ -21693,7 +21698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>2</v>
       </c>
@@ -21720,7 +21725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>1</v>
       </c>
@@ -21747,7 +21752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>2</v>
       </c>
@@ -21774,7 +21779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>1</v>
       </c>
@@ -21798,7 +21803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>1</v>
       </c>
@@ -21822,7 +21827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>1</v>
       </c>
@@ -21846,7 +21851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>1</v>
       </c>
@@ -21870,7 +21875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>2</v>
       </c>
@@ -21894,7 +21899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>1</v>
       </c>
@@ -21918,7 +21923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>1</v>
       </c>
@@ -21942,7 +21947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>1</v>
       </c>
@@ -21966,7 +21971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>2</v>
       </c>
@@ -21990,7 +21995,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>2</v>
       </c>
@@ -22014,7 +22019,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>2</v>
       </c>
@@ -22038,7 +22043,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>1</v>
       </c>
@@ -22062,7 +22067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>1</v>
       </c>
@@ -22086,7 +22091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>1</v>
       </c>
@@ -22110,7 +22115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>1</v>
       </c>
@@ -22134,7 +22139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>2</v>
       </c>
@@ -22158,7 +22163,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>2</v>
       </c>
@@ -22182,7 +22187,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>1</v>
       </c>
@@ -22206,7 +22211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>1</v>
       </c>
@@ -22230,7 +22235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>1</v>
       </c>
@@ -22254,7 +22259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>1</v>
       </c>
@@ -22278,7 +22283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>1</v>
       </c>
@@ -22302,7 +22307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>2</v>
       </c>
@@ -22326,7 +22331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>1</v>
       </c>
@@ -22350,7 +22355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>1</v>
       </c>
@@ -22377,7 +22382,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>2</v>
       </c>
@@ -22401,7 +22406,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>1</v>
       </c>
@@ -22425,7 +22430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>1</v>
       </c>
@@ -22455,7 +22460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>1</v>
       </c>
@@ -22485,7 +22490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>2</v>
       </c>
@@ -22515,7 +22520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>2</v>
       </c>
@@ -22548,7 +22553,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>1</v>
       </c>
@@ -22575,7 +22580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>1</v>
       </c>
@@ -22602,7 +22607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>2</v>
       </c>
@@ -22629,7 +22634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>2</v>
       </c>
@@ -22656,7 +22661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>1</v>
       </c>
@@ -22683,7 +22688,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>1</v>
       </c>
@@ -22707,7 +22712,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>1</v>
       </c>
@@ -22731,7 +22736,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>1</v>
       </c>
@@ -22755,7 +22760,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>1</v>
       </c>
@@ -22779,7 +22784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>1</v>
       </c>
@@ -22803,7 +22808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>1</v>
       </c>
@@ -22827,7 +22832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>2</v>
       </c>
@@ -22851,7 +22856,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>2</v>
       </c>
@@ -22875,7 +22880,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>2</v>
       </c>
@@ -22899,7 +22904,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>2</v>
       </c>
@@ -22923,7 +22928,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2</v>
       </c>
@@ -22947,7 +22952,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>2</v>
       </c>
@@ -22971,7 +22976,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>2</v>
       </c>
@@ -22995,7 +23000,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>1</v>
       </c>
@@ -23019,7 +23024,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>1</v>
       </c>
@@ -23043,7 +23048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>1</v>
       </c>
@@ -23067,7 +23072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>1</v>
       </c>
@@ -23091,7 +23096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>1</v>
       </c>
@@ -23115,7 +23120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>1</v>
       </c>
@@ -23139,7 +23144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>1</v>
       </c>
@@ -23163,7 +23168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>1</v>
       </c>
@@ -23187,7 +23192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>2</v>
       </c>
@@ -23211,7 +23216,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>1</v>
       </c>
@@ -23235,7 +23240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>1</v>
       </c>
@@ -23259,7 +23264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>1</v>
       </c>
@@ -23283,7 +23288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>1</v>
       </c>
@@ -23316,7 +23321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>2</v>
       </c>
@@ -23346,7 +23351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>2</v>
       </c>
@@ -23376,7 +23381,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>1</v>
       </c>
@@ -23406,7 +23411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>2</v>
       </c>
@@ -23433,7 +23438,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>2</v>
       </c>
@@ -23460,7 +23465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>1</v>
       </c>
@@ -23487,7 +23492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>2</v>
       </c>
@@ -23514,7 +23519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>1</v>
       </c>
@@ -23538,7 +23543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>1</v>
       </c>
@@ -23562,7 +23567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>1</v>
       </c>
@@ -23586,7 +23591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>1</v>
       </c>
@@ -23610,7 +23615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>1</v>
       </c>
@@ -23634,7 +23639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2</v>
       </c>
@@ -23658,7 +23663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>2</v>
       </c>
@@ -23682,7 +23687,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>2</v>
       </c>
@@ -23706,7 +23711,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>2</v>
       </c>
@@ -23730,7 +23735,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>2</v>
       </c>
@@ -23754,7 +23759,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>2</v>
       </c>
@@ -23778,7 +23783,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>2</v>
       </c>
@@ -23802,7 +23807,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>2</v>
       </c>
@@ -23826,7 +23831,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>1</v>
       </c>
@@ -23850,7 +23855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>1</v>
       </c>
@@ -23874,7 +23879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>1</v>
       </c>
@@ -23898,7 +23903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>1</v>
       </c>
@@ -23922,7 +23927,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>1</v>
       </c>
@@ -23952,7 +23957,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>4</v>
       </c>
@@ -23970,7 +23975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>1</v>
       </c>
@@ -23994,7 +23999,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>3</v>
       </c>
@@ -24018,7 +24023,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3</v>
       </c>
@@ -24042,7 +24047,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>3</v>
       </c>
@@ -24063,7 +24068,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>4</v>
       </c>
@@ -24087,7 +24092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>3</v>
       </c>
@@ -24108,7 +24113,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>4</v>
       </c>
@@ -24132,7 +24137,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>4</v>
       </c>
@@ -24147,7 +24152,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>4</v>
       </c>
@@ -24162,7 +24167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>4</v>
       </c>
@@ -24183,7 +24188,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>4</v>
       </c>
@@ -24213,7 +24218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>4</v>
       </c>
@@ -24231,7 +24236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>4</v>
       </c>
@@ -24255,7 +24260,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>4</v>
       </c>
@@ -24297,7 +24302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>4</v>
       </c>
@@ -24315,7 +24320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>4</v>
       </c>
@@ -24336,7 +24341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>4</v>
       </c>
@@ -24357,7 +24362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>3</v>
       </c>
@@ -24378,7 +24383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>3</v>
       </c>
@@ -24399,7 +24404,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>4</v>
       </c>
@@ -24417,7 +24422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>4</v>
       </c>
@@ -24438,7 +24443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>4</v>
       </c>
@@ -24459,7 +24464,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>4</v>
       </c>
@@ -24480,7 +24485,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>4</v>
       </c>
@@ -24495,7 +24500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>4</v>
       </c>
@@ -24513,7 +24518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>3</v>
       </c>
@@ -24534,7 +24539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>1</v>
       </c>
@@ -24558,7 +24563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>1</v>
       </c>
@@ -24582,7 +24587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>2</v>
       </c>
@@ -24606,7 +24611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>1</v>
       </c>
@@ -24627,7 +24632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>1</v>
       </c>
@@ -24651,7 +24656,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>1</v>
       </c>
@@ -24675,7 +24680,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>3</v>
       </c>
@@ -24696,7 +24701,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>3</v>
       </c>
@@ -24723,7 +24728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>4</v>
       </c>
@@ -24744,7 +24749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>3</v>
       </c>
@@ -24765,7 +24770,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2</v>
       </c>
@@ -24792,7 +24797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2</v>
       </c>
@@ -24816,7 +24821,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>1</v>
       </c>
@@ -24837,7 +24842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>1</v>
       </c>
@@ -24858,7 +24863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>1</v>
       </c>
@@ -24879,7 +24884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>4</v>
       </c>
@@ -24900,7 +24905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>3</v>
       </c>
@@ -24921,7 +24926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>4</v>
       </c>
@@ -24942,7 +24947,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>4</v>
       </c>
@@ -24963,7 +24968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>4</v>
       </c>
@@ -24981,7 +24986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>3</v>
       </c>
@@ -25005,7 +25010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>1</v>
       </c>
@@ -25035,7 +25040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>1</v>
       </c>
@@ -25062,7 +25067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>1</v>
       </c>
@@ -25089,7 +25094,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>1</v>
       </c>
@@ -25110,7 +25115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>4</v>
       </c>
@@ -25128,7 +25133,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>3</v>
       </c>
@@ -25149,7 +25154,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>4</v>
       </c>
@@ -25176,7 +25181,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>3</v>
       </c>
@@ -25197,7 +25202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>3</v>
       </c>
@@ -25218,7 +25223,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>3</v>
       </c>
@@ -25239,7 +25244,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>4</v>
       </c>
@@ -25263,7 +25268,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>4</v>
       </c>
@@ -25287,7 +25292,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>4</v>
       </c>
@@ -25305,7 +25310,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>3</v>
       </c>
@@ -25326,7 +25331,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>4</v>
       </c>
@@ -25344,7 +25349,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>4</v>
       </c>
@@ -25365,7 +25370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>3</v>
       </c>
@@ -25389,7 +25394,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>4</v>
       </c>
@@ -25407,7 +25412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>4</v>
       </c>
@@ -25440,7 +25445,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>3</v>
       </c>
@@ -25467,7 +25472,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>4</v>
       </c>
@@ -25485,7 +25490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>4</v>
       </c>
@@ -25509,7 +25514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>4</v>
       </c>
@@ -25539,7 +25544,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>4</v>
       </c>
@@ -25557,7 +25562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>3</v>
       </c>
@@ -25578,7 +25583,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>4</v>
       </c>
@@ -25596,7 +25601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>4</v>
       </c>
@@ -25620,7 +25625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>3</v>
       </c>
@@ -25641,7 +25646,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>4</v>
       </c>
@@ -25659,7 +25664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>4</v>
       </c>
@@ -25680,7 +25685,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>4</v>
       </c>
@@ -25701,7 +25706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>1</v>
       </c>
@@ -25728,7 +25733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>1</v>
       </c>
@@ -25752,7 +25757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>1</v>
       </c>
@@ -25773,7 +25778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>4</v>
       </c>
@@ -25800,7 +25805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>4</v>
       </c>
@@ -25818,7 +25823,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>4</v>
       </c>
@@ -25839,7 +25844,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>3</v>
       </c>
@@ -25860,7 +25865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>4</v>
       </c>
@@ -25881,7 +25886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>3</v>
       </c>
@@ -25902,7 +25907,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>3</v>
       </c>
@@ -25923,7 +25928,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>4</v>
       </c>
@@ -25947,7 +25952,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>3</v>
       </c>
@@ -25968,7 +25973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>4</v>
       </c>
@@ -25986,7 +25991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>3</v>
       </c>
@@ -26007,7 +26012,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>4</v>
       </c>
@@ -26034,7 +26039,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>4</v>
       </c>
@@ -26052,7 +26057,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>3</v>
       </c>
@@ -26073,7 +26078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>4</v>
       </c>
@@ -26091,7 +26096,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>4</v>
       </c>
@@ -26112,7 +26117,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>3</v>
       </c>
@@ -26133,7 +26138,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>3</v>
       </c>
@@ -26157,7 +26162,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>1</v>
       </c>
@@ -26184,7 +26189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>1</v>
       </c>
@@ -26208,7 +26213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>1</v>
       </c>
@@ -26232,7 +26237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2</v>
       </c>
@@ -26256,7 +26261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2</v>
       </c>
@@ -26280,7 +26285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>1</v>
       </c>
@@ -26301,7 +26306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2</v>
       </c>
@@ -26322,7 +26327,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>1</v>
       </c>
@@ -26343,7 +26348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>3</v>
       </c>
@@ -26367,7 +26372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>4</v>
       </c>
@@ -26385,7 +26390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>4</v>
       </c>
@@ -26403,7 +26408,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>3</v>
       </c>
@@ -26427,7 +26432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>4</v>
       </c>
@@ -26448,7 +26453,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2</v>
       </c>
@@ -26484,7 +26489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2</v>
       </c>
@@ -26508,7 +26513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>1</v>
       </c>
@@ -26529,7 +26534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>1</v>
       </c>
@@ -26550,7 +26555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>4</v>
       </c>
@@ -26568,7 +26573,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>1</v>
       </c>
@@ -26595,7 +26600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>1</v>
       </c>
@@ -26619,7 +26624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>1</v>
       </c>
@@ -26643,7 +26648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>1</v>
       </c>
@@ -26667,7 +26672,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>1</v>
       </c>
@@ -26688,7 +26693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>1</v>
       </c>
@@ -26709,7 +26714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>4</v>
       </c>
@@ -26730,7 +26735,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>1</v>
       </c>
@@ -26757,7 +26762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2</v>
       </c>
@@ -26787,7 +26792,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>1</v>
       </c>
@@ -26811,7 +26816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>1</v>
       </c>
@@ -26835,7 +26840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2</v>
       </c>
@@ -26859,7 +26864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2</v>
       </c>
@@ -26885,7 +26890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>1</v>
       </c>
@@ -26905,7 +26910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>1</v>
       </c>
@@ -26926,7 +26931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>1</v>
       </c>
@@ -26947,7 +26952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>2</v>
       </c>
@@ -26968,7 +26973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>4</v>
       </c>
@@ -26989,7 +26994,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>3</v>
       </c>
@@ -27013,7 +27018,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>3</v>
       </c>
@@ -27037,7 +27042,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>3</v>
       </c>
@@ -27061,7 +27066,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>3</v>
       </c>
@@ -27085,7 +27090,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>3</v>
       </c>
@@ -27109,7 +27114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>3</v>
       </c>
@@ -27133,7 +27138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>3</v>
       </c>
@@ -27157,7 +27162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>3</v>
       </c>
@@ -27181,7 +27186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>3</v>
       </c>
@@ -27205,7 +27210,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>4</v>
       </c>
@@ -27226,7 +27231,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>4</v>
       </c>
@@ -27245,7 +27250,7 @@
       </c>
       <c r="J871"/>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>3</v>
       </c>
@@ -27266,7 +27271,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>3</v>
       </c>
@@ -27287,7 +27292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>3</v>
       </c>
@@ -27308,7 +27313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>3</v>
       </c>
@@ -27329,7 +27334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>3</v>
       </c>
@@ -27350,7 +27355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>3</v>
       </c>
@@ -27371,7 +27376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>3</v>
       </c>
@@ -27392,7 +27397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>3</v>
       </c>
@@ -27413,7 +27418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>3</v>
       </c>
@@ -27434,7 +27439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>3</v>
       </c>
@@ -27455,7 +27460,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>3</v>
       </c>
@@ -27476,7 +27481,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>3</v>
       </c>
@@ -27497,7 +27502,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>3</v>
       </c>
@@ -27518,7 +27523,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>4</v>
       </c>
@@ -27535,9 +27540,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V885" xr:uid="{365E2C23-8965-6F48-AEBD-D2FD963C0664}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T885">
-      <sortCondition descending="1" ref="H1:H885"/>
-    </sortState>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1903 Florida hurricane"/>
+        <filter val="1932 Florida‚ÄìAlabama hurricane"/>
+        <filter val="1933 Florida‚ÄìMexico hurricane"/>
+        <filter val="Central Florida"/>
+        <filter val="Florida Keys"/>
+        <filter val="Ida"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
